--- a/LubanTools/DesignerConfigs/Datas/GameConfig_游戏配置.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/GameConfig_游戏配置.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A516FD8-31BC-48EF-894C-A51F5ED011B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="152">
   <si>
     <t>##column#var</t>
   </si>
@@ -89,12 +96,12 @@
     <t>##type</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>InitialNumberIslands</t>
   </si>
   <si>
+    <t>c,s</t>
+  </si>
+  <si>
     <t>初始岛屿数量</t>
   </si>
   <si>
@@ -110,10 +117,10 @@
     <t>初始岛屿(含位置）</t>
   </si>
   <si>
-    <t>(list#sep=|),(list#sep=;),int#ref=zs.TbTile</t>
-  </si>
-  <si>
-    <t>101001;20;39|101001;20;45|101001;26;39|101001;26;45</t>
+    <t>(list#sep=|),(list#sep=;),int#ref=zs.TbIsland</t>
+  </si>
+  <si>
+    <t>100003;20;39|100003;20;45|100003;26;39|100003;26;45</t>
   </si>
   <si>
     <r>
@@ -419,6 +426,9 @@
     <t>背包容量上限</t>
   </si>
   <si>
+    <t>airHeight</t>
+  </si>
+  <si>
     <t>垂直高度差</t>
   </si>
   <si>
@@ -606,21 +616,26 @@
   </si>
   <si>
     <t>金领员工保底次数</t>
-  </si>
-  <si>
-    <t>airHeight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c,s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,6 +651,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -646,22 +812,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,8 +826,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -683,27 +1021,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1025,28 +1649,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="54.75" customWidth="1"/>
     <col min="4" max="4" width="48.25" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,15 +1683,15 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>152</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1080,12 +1703,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>152</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1097,12 +1720,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>152</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1114,12 +1737,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>152</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1127,16 +1750,16 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>152</v>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -1148,12 +1771,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>152</v>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1165,12 +1788,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>152</v>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1182,12 +1805,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>152</v>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1199,12 +1822,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>152</v>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1216,12 +1839,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>152</v>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -1233,12 +1856,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>152</v>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -1250,12 +1873,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>152</v>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -1267,12 +1890,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>152</v>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -1284,12 +1907,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>152</v>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1301,12 +1924,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>152</v>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
@@ -1318,12 +1941,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>152</v>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
@@ -1335,12 +1958,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>152</v>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1352,12 +1975,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>152</v>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -1369,12 +1992,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>152</v>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
@@ -1386,12 +2009,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>152</v>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -1403,12 +2026,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>152</v>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -1420,12 +2043,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>152</v>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -1437,12 +2060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>152</v>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -1454,12 +2077,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>152</v>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>69</v>
@@ -1471,12 +2094,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>152</v>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>73</v>
@@ -1488,12 +2111,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>152</v>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -1505,12 +2128,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>152</v>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
@@ -1522,12 +2145,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>152</v>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
@@ -1539,12 +2162,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>152</v>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>83</v>
@@ -1556,12 +2179,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>152</v>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
@@ -1573,12 +2196,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>152</v>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
@@ -1590,15 +2213,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>152</v>
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1607,16 +2230,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
@@ -1624,16 +2247,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
@@ -1641,32 +2264,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>152</v>
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>152</v>
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1675,15 +2298,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>99</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1692,15 +2315,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>152</v>
+        <v>101</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1709,18 +2332,18 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>152</v>
+        <v>104</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1729,15 +2352,15 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>152</v>
+        <v>106</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1746,15 +2369,15 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1763,15 +2386,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>152</v>
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1780,15 +2403,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1797,18 +2420,18 @@
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>152</v>
+        <v>115</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1817,35 +2440,35 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>152</v>
+        <v>121</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1854,69 +2477,69 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
         <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
         <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1925,89 +2548,89 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E53">
         <v>0.5</v>
       </c>
       <c r="F53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" t="s">
-        <v>138</v>
       </c>
       <c r="E54">
         <v>0.2</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E55">
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -2016,15 +2639,15 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -2033,15 +2656,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2051,11 +2674,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D15:E16 A6:A14 A1:D1 C2:E2 C9:E10 C8 C6 C7:E7 C13:E14 D11:E12" numberStoredAsText="1"/>
+    <ignoredError sqref="D11:E12 C13:E14 C7:E7 C6 C8 C9:E10 C2:E2 A1:D1 A6:A14 D15:E16" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/LubanTools/DesignerConfigs/Datas/GameConfig_游戏配置.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/GameConfig_游戏配置.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA3A9FA-B9F6-48DA-9416-8407E8568845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
   <si>
     <t>##column#var</t>
   </si>
@@ -89,9 +96,34 @@
     <t>##type</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
     <t>InitialNumberIslands</t>
   </si>
   <si>
+    <t>c,s</t>
+  </si>
+  <si>
     <t>初始岛屿数量</t>
   </si>
   <si>
@@ -105,6 +137,9 @@
   </si>
   <si>
     <t>初始岛屿(含位置）</t>
+  </si>
+  <si>
+    <t>(list#sep=|),(list#sep=;),int</t>
   </si>
   <si>
     <t>101001;20;39|101001;20;45|101001;26;39|101001;26;45</t>
@@ -154,7 +189,7 @@
     <t>初始资源</t>
   </si>
   <si>
-    <t>20001;1000|20002;1000|2;500|40001;50</t>
+    <t>20001;1000|20002;1000|2;10000|40001;50</t>
   </si>
   <si>
     <t>IslandConstructionCosts</t>
@@ -163,7 +198,7 @@
     <t>第一个岛屿建造消耗</t>
   </si>
   <si>
-    <t>20001;30|20002;50|2;20</t>
+    <t>2;1000</t>
   </si>
   <si>
     <t>IslandBuildTime</t>
@@ -314,9 +349,6 @@
     <t>星级初始掉落率（万分比）</t>
   </si>
   <si>
-    <t>(list#sep=|),(list#sep=;),int</t>
-  </si>
-  <si>
     <t>1;8300|2;1500|3;200</t>
   </si>
   <si>
@@ -407,6 +439,9 @@
     <t>背包容量上限</t>
   </si>
   <si>
+    <t>airHeight</t>
+  </si>
+  <si>
     <t>垂直高度差</t>
   </si>
   <si>
@@ -428,7 +463,7 @@
     <t>飞艇燃油不足补充--(消耗的钻石;补充的燃油数量)</t>
   </si>
   <si>
-    <t>20;200</t>
+    <t>100;500</t>
   </si>
   <si>
     <t>AirshipTouristWelcomeTime</t>
@@ -452,6 +487,12 @@
     <t>//填50表示减少掉50%的时间</t>
   </si>
   <si>
+    <t>AirshipTouristPassengerTransportParam</t>
+  </si>
+  <si>
+    <t>飞艇载客数量</t>
+  </si>
+  <si>
     <t>TouristGroupRefreshTime</t>
   </si>
   <si>
@@ -594,42 +635,19 @@
   </si>
   <si>
     <t>金领员工保底次数</t>
-  </si>
-  <si>
-    <t>airHeight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c,s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=|),(list#sep=;),int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -645,6 +663,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -655,22 +824,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +838,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -692,27 +1033,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1034,20 +1662,19 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="54.75" customWidth="1"/>
@@ -1055,7 +1682,7 @@
     <col min="5" max="5" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,1003 +1695,1020 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>60</v>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>62</v>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
       <c r="E26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>148</v>
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>148</v>
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>148</v>
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>86</v>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>88</v>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>148</v>
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>148</v>
+        <v>97</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55">
+        <v>0.2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>148</v>
       </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44">
-        <v>15</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45">
-        <v>20</v>
-      </c>
-      <c r="F45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>80</v>
-      </c>
-      <c r="F47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53">
-        <v>0.5</v>
-      </c>
-      <c r="F53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54">
-        <v>0.2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58">
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D15:E16 A6:A14 A1:D1 C2:E2 C9:E10 C8 C6 C7:E7 C13:E14 D11:E12" numberStoredAsText="1"/>
+    <ignoredError sqref="D11:E12 C13:E14 C7:E7 C6 C8 C9:D9 C10:E10 C2:E2 A1:D1 A6:A14 D15:E16" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/LubanTools/DesignerConfigs/Datas/GameConfig_游戏配置.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/GameConfig_游戏配置.xlsx
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,11 +50,26 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-这个第五个参数还可以设置建筑的旋转角度 0 1 2 3 分别是顺时针旋转0° 90° 180° 270°</t>
+建筑id；x轴；y轴；z轴（默认6）；状态；旋转角度
+旋转角度（顺时针）：
+0=0°
+1=90°
+2=180°
+3=270°
+状态：
+0=建筑中 
+1=正常 
+2=升级 
+3=放入背包 
+4=拆除建筑 
+-1=取消建筑/删除建筑 
+-2=破碎状态（初始化时使用） 
+-3=已销毁
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="157">
   <si>
     <t>##column#var</t>
   </si>
@@ -96,40 +111,39 @@
     <t>##type</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
+    <t>GridInitialSize</t>
+  </si>
+  <si>
+    <t>c,s</t>
+  </si>
+  <si>
+    <t>地图尺寸格子数（长、宽、高）</t>
+  </si>
+  <si>
+    <t>(list#sep=;),int</t>
+  </si>
+  <si>
+    <t>300;300;100</t>
+  </si>
+  <si>
+    <t>//按格子算，每个格子=2个unity单位格子</t>
+  </si>
+  <si>
+    <t>IslandStandardHigh</t>
+  </si>
+  <si>
+    <t>岛屿基准高度</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>InitialNumberIslands</t>
   </si>
   <si>
-    <t>c,s</t>
-  </si>
-  <si>
     <t>初始岛屿数量</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -142,7 +156,7 @@
     <t>(list#sep=|),(list#sep=;),int</t>
   </si>
   <si>
-    <t>101001;20;39|101001;20;45|101001;26;39|101001;26;45</t>
+    <t>101001;20;39;5|101001;20;45;5|101001;26;39;5|101001;26;45;5</t>
   </si>
   <si>
     <r>
@@ -180,7 +194,7 @@
     <t>初始建筑</t>
   </si>
   <si>
-    <t>10101;20;39;-2|10201;20;45;-2|10301;26;39;1|20301;26;45;1|70101;20;42;1;0|70101;23;39;1;1|70101;26;42;1;0|70101;23;45;1;1</t>
+    <t>10101;20;39;6;-2|10201;20;45;6;-2|10301;26;39;6;1|20301;26;45;6;1</t>
   </si>
   <si>
     <t>InitialResources</t>
@@ -385,9 +399,6 @@
     <t>招募付费刷新初始消耗</t>
   </si>
   <si>
-    <t>(list#sep=;),int</t>
-  </si>
-  <si>
     <t>2;100</t>
   </si>
   <si>
@@ -647,13 +658,25 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1134,28 +1157,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,127 +1178,142 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1668,10 +1697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1682,1024 +1711,1076 @@
     <col min="5" max="5" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" ht="17.25" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="4" ht="16.5" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>12000</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>12000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>5000</v>
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2000</v>
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="8">
         <v>8</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="B29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33">
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
         <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>97</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>21600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>5000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s">
-        <v>114</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="F46" t="s">
-        <v>117</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>80</v>
-      </c>
-      <c r="F48" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>126</v>
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>120</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54">
-        <v>0.5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>140</v>
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55">
-        <v>0.2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>143</v>
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>139</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>86400</v>
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>6</v>
+        <v>142</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E58">
-        <v>300</v>
+        <v>0.5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59">
+        <v>0.2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>151</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59">
+      <c r="B61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
         <v>50</v>
       </c>
     </row>
@@ -2708,7 +2789,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D11:E12 C13:E14 C7:E7 C6 C8 C9:D9 C10:E10 C2:E2 A1:D1 A6:A14 D15:E16" numberStoredAsText="1"/>
+    <ignoredError sqref="D15:E16 C17:E18 C11:E11 C10 C12 C13:D13 C14:E14 C6:E6 A1:D1 A10:A18 D19:E20" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
